--- a/cfs_6_0.65.xlsx
+++ b/cfs_6_0.65.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.627</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -588,7 +588,7 @@
         <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>0.476</v>
+        <v>0.447</v>
       </c>
       <c r="M3" t="n">
         <v>5.855072463768116</v>
@@ -628,7 +628,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.264</v>
+        <v>0.412</v>
       </c>
       <c r="K4" t="n">
         <v>0.486</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.615</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -720,7 +720,7 @@
         <v>0.589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.278</v>
+        <v>0.446</v>
       </c>
       <c r="K6" t="n">
         <v>0.496</v>
@@ -766,7 +766,7 @@
         <v>0.554</v>
       </c>
       <c r="J7" t="n">
-        <v>0.281</v>
+        <v>0.408</v>
       </c>
       <c r="K7" t="n">
         <v>0.481</v>
@@ -803,7 +803,7 @@
         <v>0.533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.707</v>
       </c>
       <c r="H8" t="n">
         <v>0.404</v>
@@ -812,7 +812,7 @@
         <v>0.579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.335</v>
+        <v>0.431</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -858,7 +858,7 @@
         <v>0.527</v>
       </c>
       <c r="J9" t="n">
-        <v>0.246</v>
+        <v>0.367</v>
       </c>
       <c r="K9" t="n">
         <v>0.477</v>
@@ -898,13 +898,13 @@
         <v>0.73</v>
       </c>
       <c r="H10" t="n">
-        <v>0.327</v>
+        <v>0.367</v>
       </c>
       <c r="I10" t="n">
         <v>0.544</v>
       </c>
       <c r="J10" t="n">
-        <v>0.266</v>
+        <v>0.331</v>
       </c>
       <c r="K10" t="n">
         <v>0.418</v>
@@ -941,7 +941,7 @@
         <v>0.576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.627</v>
+        <v>0.736</v>
       </c>
       <c r="H11" t="n">
         <v>0.381</v>
@@ -987,7 +987,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671</v>
+        <v>0.716</v>
       </c>
       <c r="H12" t="n">
         <v>0.376</v>
@@ -996,7 +996,7 @@
         <v>0.542</v>
       </c>
       <c r="J12" t="n">
-        <v>0.338</v>
+        <v>0.361</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.675</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1048,7 +1048,7 @@
         <v>0.458</v>
       </c>
       <c r="L13" t="n">
-        <v>0.46</v>
+        <v>0.447</v>
       </c>
       <c r="M13" t="n">
         <v>3.8125</v>
@@ -1088,7 +1088,7 @@
         <v>0.579</v>
       </c>
       <c r="J14" t="n">
-        <v>0.281</v>
+        <v>0.392</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -1113,7 +1113,7 @@
         <v>0.623</v>
       </c>
       <c r="C15" t="n">
-        <v>0.701</v>
+        <v>0.653</v>
       </c>
       <c r="D15" t="n">
         <v>0.473</v>
@@ -1125,7 +1125,7 @@
         <v>0.596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.698</v>
+        <v>0.756</v>
       </c>
       <c r="H15" t="n">
         <v>0.343</v>
@@ -1137,7 +1137,7 @@
         <v>0.33</v>
       </c>
       <c r="K15" t="n">
-        <v>0.467</v>
+        <v>0.478</v>
       </c>
       <c r="L15" t="n">
         <v>0.424</v>
@@ -1171,7 +1171,7 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.671</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
         <v>0.35</v>
@@ -1217,7 +1217,7 @@
         <v>0.573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.627</v>
+        <v>0.742</v>
       </c>
       <c r="H17" t="n">
         <v>0.361</v>
@@ -1229,7 +1229,7 @@
         <v>0.325</v>
       </c>
       <c r="K17" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L17" t="n">
         <v>0.428</v>
@@ -1251,10 +1251,10 @@
         <v>0.605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.694</v>
+        <v>0.651</v>
       </c>
       <c r="D18" t="n">
-        <v>0.52</v>
+        <v>0.496</v>
       </c>
       <c r="E18" t="n">
         <v>0.616</v>
@@ -1266,7 +1266,7 @@
         <v>0.76</v>
       </c>
       <c r="H18" t="n">
-        <v>0.36</v>
+        <v>0.394</v>
       </c>
       <c r="I18" t="n">
         <v>0.5580000000000001</v>
@@ -1278,7 +1278,7 @@
         <v>0.475</v>
       </c>
       <c r="L18" t="n">
-        <v>0.501</v>
+        <v>0.435</v>
       </c>
       <c r="M18" t="n">
         <v>3.113636363636364</v>
@@ -1297,19 +1297,19 @@
         <v>0.753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.631</v>
+        <v>0.592</v>
       </c>
       <c r="D19" t="n">
         <v>0.391</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="F19" t="n">
         <v>0.552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.599</v>
+        <v>0.623</v>
       </c>
       <c r="H19" t="n">
         <v>0.412</v>
@@ -1355,7 +1355,7 @@
         <v>0.552</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.695</v>
       </c>
       <c r="H20" t="n">
         <v>0.373</v>
@@ -1364,13 +1364,13 @@
         <v>0.523</v>
       </c>
       <c r="J20" t="n">
-        <v>0.334</v>
+        <v>0.418</v>
       </c>
       <c r="K20" t="n">
         <v>0.444</v>
       </c>
       <c r="L20" t="n">
-        <v>0.463</v>
+        <v>0.431</v>
       </c>
       <c r="M20" t="n">
         <v>4.982142857142857</v>
@@ -1401,7 +1401,7 @@
         <v>0.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.71</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0.329</v>
@@ -1435,13 +1435,13 @@
         <v>0.571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.718</v>
+        <v>0.695</v>
       </c>
       <c r="D22" t="n">
         <v>0.461</v>
       </c>
       <c r="E22" t="n">
-        <v>0.632</v>
+        <v>0.594</v>
       </c>
       <c r="F22" t="n">
         <v>0.604</v>
@@ -1462,7 +1462,7 @@
         <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>0.425</v>
+        <v>0.407</v>
       </c>
       <c r="M22" t="n">
         <v>4.907407407407407</v>
@@ -1481,7 +1481,7 @@
         <v>0.638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.721</v>
+        <v>0.671</v>
       </c>
       <c r="D23" t="n">
         <v>0.44</v>
@@ -1508,7 +1508,7 @@
         <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>0.508</v>
+        <v>0.446</v>
       </c>
       <c r="M23" t="n">
         <v>3.095238095238095</v>
@@ -1533,13 +1533,13 @@
         <v>0.451</v>
       </c>
       <c r="E24" t="n">
-        <v>0.582</v>
+        <v>0.556</v>
       </c>
       <c r="F24" t="n">
         <v>0.577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.658</v>
+        <v>0.704</v>
       </c>
       <c r="H24" t="n">
         <v>0.361</v>
@@ -1573,19 +1573,19 @@
         <v>0.67</v>
       </c>
       <c r="C25" t="n">
-        <v>0.641</v>
+        <v>0.628</v>
       </c>
       <c r="D25" t="n">
         <v>0.478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.578</v>
+        <v>0.538</v>
       </c>
       <c r="F25" t="n">
         <v>0.501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.647</v>
+        <v>0.675</v>
       </c>
       <c r="H25" t="n">
         <v>0.36</v>
@@ -1625,13 +1625,13 @@
         <v>0.452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.579</v>
+        <v>0.525</v>
       </c>
       <c r="F26" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.676</v>
       </c>
       <c r="H26" t="n">
         <v>0.385</v>
@@ -1671,13 +1671,13 @@
         <v>0.466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.612</v>
+        <v>0.578</v>
       </c>
       <c r="F27" t="n">
-        <v>0.601</v>
+        <v>0.571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.736</v>
       </c>
       <c r="H27" t="n">
         <v>0.352</v>
@@ -1723,7 +1723,7 @@
         <v>0.571</v>
       </c>
       <c r="G28" t="n">
-        <v>0.582</v>
+        <v>0.633</v>
       </c>
       <c r="H28" t="n">
         <v>0.39</v>
@@ -1732,7 +1732,7 @@
         <v>0.556</v>
       </c>
       <c r="J28" t="n">
-        <v>0.393</v>
+        <v>0.422</v>
       </c>
       <c r="K28" t="n">
         <v>0.425</v>
@@ -1757,13 +1757,13 @@
         <v>0.61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.657</v>
+        <v>0.629</v>
       </c>
       <c r="D29" t="n">
         <v>0.457</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.529</v>
       </c>
       <c r="F29" t="n">
         <v>0.5590000000000001</v>
@@ -1784,7 +1784,7 @@
         <v>0.471</v>
       </c>
       <c r="L29" t="n">
-        <v>0.459</v>
+        <v>0.439</v>
       </c>
       <c r="M29" t="n">
         <v>2.122448979591837</v>
@@ -1806,7 +1806,7 @@
         <v>0.671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.424</v>
+        <v>0.451</v>
       </c>
       <c r="E30" t="n">
         <v>0.5590000000000001</v>
@@ -1824,7 +1824,7 @@
         <v>0.576</v>
       </c>
       <c r="J30" t="n">
-        <v>0.343</v>
+        <v>0.416</v>
       </c>
       <c r="K30" t="n">
         <v>0.463</v>
@@ -1855,7 +1855,7 @@
         <v>0.492</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.517</v>
       </c>
       <c r="F31" t="n">
         <v>0.543</v>
@@ -1864,7 +1864,7 @@
         <v>0.633</v>
       </c>
       <c r="H31" t="n">
-        <v>0.381</v>
+        <v>0.376</v>
       </c>
       <c r="I31" t="n">
         <v>0.534</v>
@@ -1916,7 +1916,7 @@
         <v>0.574</v>
       </c>
       <c r="J32" t="n">
-        <v>0.392</v>
+        <v>0.523</v>
       </c>
       <c r="K32" t="n">
         <v>0.499</v>
@@ -1941,13 +1941,13 @@
         <v>0.607</v>
       </c>
       <c r="C33" t="n">
-        <v>0.648</v>
+        <v>0.606</v>
       </c>
       <c r="D33" t="n">
         <v>0.487</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.517</v>
       </c>
       <c r="F33" t="n">
         <v>0.517</v>
@@ -1968,7 +1968,7 @@
         <v>0.504</v>
       </c>
       <c r="L33" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="M33" t="n">
         <v>1.233333333333333</v>
@@ -1993,7 +1993,7 @@
         <v>0.494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.594</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F34" t="n">
         <v>0.542</v>
@@ -2008,7 +2008,7 @@
         <v>0.545</v>
       </c>
       <c r="J34" t="n">
-        <v>0.276</v>
+        <v>0.319</v>
       </c>
       <c r="K34" t="n">
         <v>0.416</v>
@@ -2033,13 +2033,13 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.694</v>
+        <v>0.622</v>
       </c>
       <c r="D35" t="n">
         <v>0.478</v>
       </c>
       <c r="E35" t="n">
-        <v>0.577</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F35" t="n">
         <v>0.5639999999999999</v>
@@ -2048,7 +2048,7 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0.374</v>
+        <v>0.369</v>
       </c>
       <c r="I35" t="n">
         <v>0.547</v>
@@ -2085,19 +2085,19 @@
         <v>0.478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.592</v>
+        <v>0.552</v>
       </c>
       <c r="F36" t="n">
         <v>0.556</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.711</v>
       </c>
       <c r="H36" t="n">
         <v>0.357</v>
       </c>
       <c r="I36" t="n">
-        <v>0.552</v>
+        <v>0.534</v>
       </c>
       <c r="J36" t="n">
         <v>0.346</v>
@@ -2106,7 +2106,7 @@
         <v>0.471</v>
       </c>
       <c r="L36" t="n">
-        <v>0.463</v>
+        <v>0.432</v>
       </c>
       <c r="M36" t="n">
         <v>3.042553191489362</v>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.577</v>
+        <v>0.584</v>
       </c>
       <c r="C37" t="n">
         <v>0.624</v>
@@ -2131,7 +2131,7 @@
         <v>0.484</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.546</v>
       </c>
       <c r="F37" t="n">
         <v>0.553</v>
@@ -2152,7 +2152,7 @@
         <v>0.45</v>
       </c>
       <c r="L37" t="n">
-        <v>0.495</v>
+        <v>0.432</v>
       </c>
       <c r="M37" t="n">
         <v>2.021739130434783</v>
@@ -2177,7 +2177,7 @@
         <v>0.48</v>
       </c>
       <c r="E38" t="n">
-        <v>0.594</v>
+        <v>0.516</v>
       </c>
       <c r="F38" t="n">
         <v>0.57</v>
@@ -2195,10 +2195,10 @@
         <v>0.36</v>
       </c>
       <c r="K38" t="n">
-        <v>0.506</v>
+        <v>0.479</v>
       </c>
       <c r="L38" t="n">
-        <v>0.442</v>
+        <v>0.395</v>
       </c>
       <c r="M38" t="n">
         <v>1.480769230769231</v>
@@ -2223,13 +2223,13 @@
         <v>0.391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.586</v>
+        <v>0.554</v>
       </c>
       <c r="F39" t="n">
         <v>0.5679999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.649</v>
+        <v>0.704</v>
       </c>
       <c r="H39" t="n">
         <v>0.339</v>
@@ -2275,7 +2275,7 @@
         <v>0.525</v>
       </c>
       <c r="G40" t="n">
-        <v>0.658</v>
+        <v>0.78</v>
       </c>
       <c r="H40" t="n">
         <v>0.375</v>
@@ -2284,7 +2284,7 @@
         <v>0.542</v>
       </c>
       <c r="J40" t="n">
-        <v>0.282</v>
+        <v>0.349</v>
       </c>
       <c r="K40" t="n">
         <v>0.438</v>
@@ -2309,7 +2309,7 @@
         <v>0.575</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.649</v>
       </c>
       <c r="D41" t="n">
         <v>0.483</v>
@@ -2321,10 +2321,10 @@
         <v>0.555</v>
       </c>
       <c r="G41" t="n">
-        <v>0.712</v>
+        <v>0.731</v>
       </c>
       <c r="H41" t="n">
-        <v>0.335</v>
+        <v>0.392</v>
       </c>
       <c r="I41" t="n">
         <v>0.519</v>
@@ -2361,19 +2361,19 @@
         <v>0.451</v>
       </c>
       <c r="E42" t="n">
-        <v>0.584</v>
+        <v>0.583</v>
       </c>
       <c r="F42" t="n">
         <v>0.581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.676</v>
+        <v>0.704</v>
       </c>
       <c r="H42" t="n">
-        <v>0.337</v>
+        <v>0.385</v>
       </c>
       <c r="I42" t="n">
-        <v>0.539</v>
+        <v>0.555</v>
       </c>
       <c r="J42" t="n">
         <v>0.332</v>
@@ -2413,7 +2413,7 @@
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.66</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2422,7 +2422,7 @@
         <v>0.547</v>
       </c>
       <c r="J43" t="n">
-        <v>0.361</v>
+        <v>0.381</v>
       </c>
       <c r="K43" t="n">
         <v>0.47</v>
@@ -2447,13 +2447,13 @@
         <v>0.614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.712</v>
+        <v>0.654</v>
       </c>
       <c r="D44" t="n">
         <v>0.467</v>
       </c>
       <c r="E44" t="n">
-        <v>0.582</v>
+        <v>0.518</v>
       </c>
       <c r="F44" t="n">
         <v>0.569</v>
@@ -2499,16 +2499,16 @@
         <v>0.431</v>
       </c>
       <c r="E45" t="n">
-        <v>0.587</v>
+        <v>0.573</v>
       </c>
       <c r="F45" t="n">
         <v>0.634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.636</v>
+        <v>0.706</v>
       </c>
       <c r="H45" t="n">
-        <v>0.378</v>
+        <v>0.387</v>
       </c>
       <c r="I45" t="n">
         <v>0.54</v>
@@ -2551,7 +2551,7 @@
         <v>0.49</v>
       </c>
       <c r="G46" t="n">
-        <v>0.624</v>
+        <v>0.638</v>
       </c>
       <c r="H46" t="n">
         <v>0.395</v>
@@ -2560,7 +2560,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0.344</v>
+        <v>0.413</v>
       </c>
       <c r="K46" t="n">
         <v>0.44</v>
@@ -2591,7 +2591,7 @@
         <v>0.502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.601</v>
+        <v>0.551</v>
       </c>
       <c r="F47" t="n">
         <v>0.5580000000000001</v>
@@ -2612,7 +2612,7 @@
         <v>0.483</v>
       </c>
       <c r="L47" t="n">
-        <v>0.453</v>
+        <v>0.42</v>
       </c>
       <c r="M47" t="n">
         <v>1.342857142857143</v>
@@ -2646,7 +2646,7 @@
         <v>0.638</v>
       </c>
       <c r="H48" t="n">
-        <v>0.372</v>
+        <v>0.464</v>
       </c>
       <c r="I48" t="n">
         <v>0.549</v>
@@ -2658,7 +2658,7 @@
         <v>0.483</v>
       </c>
       <c r="L48" t="n">
-        <v>0.447</v>
+        <v>0.439</v>
       </c>
       <c r="M48" t="n">
         <v>1.125</v>
@@ -2683,7 +2683,7 @@
         <v>0.412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.603</v>
+        <v>0.533</v>
       </c>
       <c r="F49" t="n">
         <v>0.535</v>
@@ -2692,7 +2692,7 @@
         <v>0.599</v>
       </c>
       <c r="H49" t="n">
-        <v>0.423</v>
+        <v>0.475</v>
       </c>
       <c r="I49" t="n">
         <v>0.602</v>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.719</v>
+        <v>0.674</v>
       </c>
       <c r="C50" t="n">
         <v>0.594</v>
@@ -2750,7 +2750,7 @@
         <v>0.492</v>
       </c>
       <c r="L50" t="n">
-        <v>0.501</v>
+        <v>0.395</v>
       </c>
       <c r="M50" t="n">
         <v>1.466666666666667</v>
@@ -2784,19 +2784,19 @@
         <v>0.641</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I51" t="n">
         <v>0.538</v>
       </c>
       <c r="J51" t="n">
-        <v>0.342</v>
+        <v>0.451</v>
       </c>
       <c r="K51" t="n">
         <v>0.449</v>
       </c>
       <c r="L51" t="n">
-        <v>0.509</v>
+        <v>0.432</v>
       </c>
       <c r="M51" t="n">
         <v>3.12</v>
@@ -2815,19 +2815,19 @@
         <v>0.658</v>
       </c>
       <c r="C52" t="n">
-        <v>0.62</v>
+        <v>0.607</v>
       </c>
       <c r="D52" t="n">
         <v>0.485</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.536</v>
       </c>
       <c r="F52" t="n">
         <v>0.554</v>
       </c>
       <c r="G52" t="n">
-        <v>0.612</v>
+        <v>0.661</v>
       </c>
       <c r="H52" t="n">
         <v>0.382</v>
@@ -2867,7 +2867,7 @@
         <v>0.471</v>
       </c>
       <c r="E53" t="n">
-        <v>0.589</v>
+        <v>0.548</v>
       </c>
       <c r="F53" t="n">
         <v>0.549</v>
@@ -2879,16 +2879,16 @@
         <v>0.336</v>
       </c>
       <c r="I53" t="n">
-        <v>0.533</v>
+        <v>0.529</v>
       </c>
       <c r="J53" t="n">
-        <v>0.26</v>
+        <v>0.313</v>
       </c>
       <c r="K53" t="n">
         <v>0.462</v>
       </c>
       <c r="L53" t="n">
-        <v>0.399</v>
+        <v>0.412</v>
       </c>
       <c r="M53" t="n">
         <v>3.555555555555555</v>
@@ -2913,7 +2913,7 @@
         <v>0.456</v>
       </c>
       <c r="E54" t="n">
-        <v>0.626</v>
+        <v>0.577</v>
       </c>
       <c r="F54" t="n">
         <v>0.572</v>
@@ -2928,7 +2928,7 @@
         <v>0.579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.383</v>
+        <v>0.407</v>
       </c>
       <c r="K54" t="n">
         <v>0.453</v>
@@ -2965,10 +2965,10 @@
         <v>0.492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.608</v>
+        <v>0.642</v>
       </c>
       <c r="H55" t="n">
-        <v>0.382</v>
+        <v>0.467</v>
       </c>
       <c r="I55" t="n">
         <v>0.538</v>
@@ -3005,7 +3005,7 @@
         <v>0.452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.619</v>
+        <v>0.547</v>
       </c>
       <c r="F56" t="n">
         <v>0.524</v>
@@ -3051,13 +3051,13 @@
         <v>0.43</v>
       </c>
       <c r="E57" t="n">
-        <v>0.643</v>
+        <v>0.577</v>
       </c>
       <c r="F57" t="n">
         <v>0.602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.724</v>
       </c>
       <c r="H57" t="n">
         <v>0.367</v>
@@ -3103,7 +3103,7 @@
         <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.681</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
         <v>0.37</v>
@@ -3118,7 +3118,7 @@
         <v>0.471</v>
       </c>
       <c r="L58" t="n">
-        <v>0.463</v>
+        <v>0.431</v>
       </c>
       <c r="M58" t="n">
         <v>1.818181818181818</v>
@@ -3137,13 +3137,13 @@
         <v>0.619</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="D59" t="n">
         <v>0.456</v>
       </c>
       <c r="E59" t="n">
-        <v>0.604</v>
+        <v>0.575</v>
       </c>
       <c r="F59" t="n">
         <v>0.621</v>
@@ -3152,7 +3152,7 @@
         <v>0.676</v>
       </c>
       <c r="H59" t="n">
-        <v>0.361</v>
+        <v>0.392</v>
       </c>
       <c r="I59" t="n">
         <v>0.577</v>
@@ -3189,7 +3189,7 @@
         <v>0.494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.583</v>
+        <v>0.508</v>
       </c>
       <c r="F60" t="n">
         <v>0.5669999999999999</v>
@@ -3241,13 +3241,13 @@
         <v>0.612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.587</v>
+        <v>0.675</v>
       </c>
       <c r="H61" t="n">
-        <v>0.338</v>
+        <v>0.369</v>
       </c>
       <c r="I61" t="n">
-        <v>0.577</v>
+        <v>0.54</v>
       </c>
       <c r="J61" t="n">
         <v>0.341</v>
@@ -3256,7 +3256,7 @@
         <v>0.398</v>
       </c>
       <c r="L61" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="M61" t="n">
         <v>2.818181818181818</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3302,7 +3302,7 @@
         <v>0.464</v>
       </c>
       <c r="L62" t="n">
-        <v>0.431</v>
+        <v>0.464</v>
       </c>
       <c r="M62" t="n">
         <v>1.103448275862069</v>
@@ -3327,7 +3327,7 @@
         <v>0.465</v>
       </c>
       <c r="E63" t="n">
-        <v>0.642</v>
+        <v>0.516</v>
       </c>
       <c r="F63" t="n">
         <v>0.555</v>
@@ -3348,7 +3348,7 @@
         <v>0.477</v>
       </c>
       <c r="L63" t="n">
-        <v>0.452</v>
+        <v>0.395</v>
       </c>
       <c r="M63" t="n">
         <v>1.761904761904762</v>
@@ -3373,7 +3373,7 @@
         <v>0.465</v>
       </c>
       <c r="E64" t="n">
-        <v>0.602</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F64" t="n">
         <v>0.585</v>
@@ -3382,7 +3382,7 @@
         <v>0.719</v>
       </c>
       <c r="H64" t="n">
-        <v>0.35</v>
+        <v>0.369</v>
       </c>
       <c r="I64" t="n">
         <v>0.508</v>
@@ -3394,7 +3394,7 @@
         <v>0.39</v>
       </c>
       <c r="L64" t="n">
-        <v>0.464</v>
+        <v>0.406</v>
       </c>
       <c r="M64" t="n">
         <v>4.8</v>
@@ -3425,10 +3425,10 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.636</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
-        <v>0.378</v>
+        <v>0.39</v>
       </c>
       <c r="I65" t="n">
         <v>0.5590000000000001</v>
@@ -3474,10 +3474,10 @@
         <v>0.653</v>
       </c>
       <c r="H66" t="n">
-        <v>0.346</v>
+        <v>0.419</v>
       </c>
       <c r="I66" t="n">
-        <v>0.486</v>
+        <v>0.546</v>
       </c>
       <c r="J66" t="n">
         <v>0.305</v>
@@ -3511,13 +3511,13 @@
         <v>0.442</v>
       </c>
       <c r="E67" t="n">
-        <v>0.59</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.593</v>
       </c>
       <c r="G67" t="n">
-        <v>0.668</v>
+        <v>0.712</v>
       </c>
       <c r="H67" t="n">
         <v>0.378</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.623</v>
+        <v>0.736</v>
       </c>
       <c r="C68" t="n">
         <v>0.605</v>
@@ -3572,7 +3572,7 @@
         <v>0.518</v>
       </c>
       <c r="J68" t="n">
-        <v>0.325</v>
+        <v>0.511</v>
       </c>
       <c r="K68" t="n">
         <v>0.487</v>
@@ -3609,7 +3609,7 @@
         <v>0.518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.616</v>
+        <v>0.763</v>
       </c>
       <c r="H69" t="n">
         <v>0.371</v>
@@ -3649,10 +3649,10 @@
         <v>0.478</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.509</v>
       </c>
       <c r="F70" t="n">
-        <v>0.503</v>
+        <v>0.507</v>
       </c>
       <c r="G70" t="n">
         <v>0.639</v>
@@ -3664,7 +3664,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>0.321</v>
+        <v>0.34</v>
       </c>
       <c r="K70" t="n">
         <v>0.476</v>
@@ -3692,7 +3692,7 @@
         <v>0.679</v>
       </c>
       <c r="D71" t="n">
-        <v>0.446</v>
+        <v>0.48</v>
       </c>
       <c r="E71" t="n">
         <v>0.597</v>
@@ -3704,7 +3704,7 @@
         <v>0.702</v>
       </c>
       <c r="H71" t="n">
-        <v>0.331</v>
+        <v>0.414</v>
       </c>
       <c r="I71" t="n">
         <v>0.534</v>
@@ -3738,16 +3738,16 @@
         <v>0.62</v>
       </c>
       <c r="D72" t="n">
-        <v>0.471</v>
+        <v>0.42</v>
       </c>
       <c r="E72" t="n">
-        <v>0.589</v>
+        <v>0.548</v>
       </c>
       <c r="F72" t="n">
-        <v>0.576</v>
+        <v>0.554</v>
       </c>
       <c r="G72" t="n">
-        <v>0.621</v>
+        <v>0.671</v>
       </c>
       <c r="H72" t="n">
         <v>0.388</v>
@@ -3793,7 +3793,7 @@
         <v>0.546</v>
       </c>
       <c r="G73" t="n">
-        <v>0.616</v>
+        <v>0.736</v>
       </c>
       <c r="H73" t="n">
         <v>0.369</v>
@@ -3808,7 +3808,7 @@
         <v>0.456</v>
       </c>
       <c r="L73" t="n">
-        <v>0.482</v>
+        <v>0.441</v>
       </c>
       <c r="M73" t="n">
         <v>2.28</v>
@@ -3839,7 +3839,7 @@
         <v>0.488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.552</v>
+        <v>0.623</v>
       </c>
       <c r="H74" t="n">
         <v>0.408</v>
@@ -3854,7 +3854,7 @@
         <v>0.46</v>
       </c>
       <c r="L74" t="n">
-        <v>0.516</v>
+        <v>0.472</v>
       </c>
       <c r="M74" t="n">
         <v>1.047619047619048</v>
@@ -3879,13 +3879,13 @@
         <v>0.468</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F75" t="n">
         <v>0.521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.623</v>
+        <v>0.709</v>
       </c>
       <c r="H75" t="n">
         <v>0.348</v>
@@ -3931,10 +3931,10 @@
         <v>0.576</v>
       </c>
       <c r="G76" t="n">
-        <v>0.627</v>
+        <v>0.71</v>
       </c>
       <c r="H76" t="n">
-        <v>0.346</v>
+        <v>0.375</v>
       </c>
       <c r="I76" t="n">
         <v>0.548</v>
@@ -3980,13 +3980,13 @@
         <v>0.669</v>
       </c>
       <c r="H77" t="n">
-        <v>0.343</v>
+        <v>0.43</v>
       </c>
       <c r="I77" t="n">
         <v>0.5639999999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>0.353</v>
+        <v>0.451</v>
       </c>
       <c r="K77" t="n">
         <v>0.525</v>
@@ -4017,7 +4017,7 @@
         <v>0.47</v>
       </c>
       <c r="E78" t="n">
-        <v>0.639</v>
+        <v>0.573</v>
       </c>
       <c r="F78" t="n">
         <v>0.554</v>
@@ -4032,7 +4032,7 @@
         <v>0.532</v>
       </c>
       <c r="J78" t="n">
-        <v>0.343</v>
+        <v>0.393</v>
       </c>
       <c r="K78" t="n">
         <v>0.439</v>
@@ -4072,7 +4072,7 @@
         <v>0.604</v>
       </c>
       <c r="H79" t="n">
-        <v>0.37</v>
+        <v>0.475</v>
       </c>
       <c r="I79" t="n">
         <v>0.572</v>
@@ -4124,13 +4124,13 @@
         <v>0.514</v>
       </c>
       <c r="J80" t="n">
-        <v>0.293</v>
+        <v>0.407</v>
       </c>
       <c r="K80" t="n">
         <v>0.417</v>
       </c>
       <c r="L80" t="n">
-        <v>0.443</v>
+        <v>0.41</v>
       </c>
       <c r="M80" t="n">
         <v>2.533333333333333</v>
@@ -4170,7 +4170,7 @@
         <v>0.503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.288</v>
+        <v>0.517</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -4207,7 +4207,7 @@
         <v>0.62</v>
       </c>
       <c r="G82" t="n">
-        <v>0.785</v>
+        <v>0.772</v>
       </c>
       <c r="H82" t="n">
         <v>0.34</v>
@@ -4222,7 +4222,7 @@
         <v>0.392</v>
       </c>
       <c r="L82" t="n">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
       <c r="M82" t="n">
         <v>4.733333333333333</v>
@@ -4247,7 +4247,7 @@
         <v>0.456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.611</v>
+        <v>0.59</v>
       </c>
       <c r="F83" t="n">
         <v>0.483</v>
@@ -4256,7 +4256,7 @@
         <v>0.694</v>
       </c>
       <c r="H83" t="n">
-        <v>0.372</v>
+        <v>0.453</v>
       </c>
       <c r="I83" t="n">
         <v>0.523</v>
@@ -4299,10 +4299,10 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.72</v>
       </c>
       <c r="H84" t="n">
-        <v>0.307</v>
+        <v>0.425</v>
       </c>
       <c r="I84" t="n">
         <v>0.544</v>
@@ -4339,7 +4339,7 @@
         <v>0.441</v>
       </c>
       <c r="E85" t="n">
-        <v>0.597</v>
+        <v>0.533</v>
       </c>
       <c r="F85" t="n">
         <v>0.523</v>
@@ -4351,10 +4351,10 @@
         <v>0.405</v>
       </c>
       <c r="I85" t="n">
-        <v>0.583</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J85" t="n">
-        <v>0.394</v>
+        <v>0.474</v>
       </c>
       <c r="K85" t="n">
         <v>0.463</v>
@@ -4379,13 +4379,13 @@
         <v>0.537</v>
       </c>
       <c r="C86" t="n">
-        <v>0.725</v>
+        <v>0.699</v>
       </c>
       <c r="D86" t="n">
         <v>0.431</v>
       </c>
       <c r="E86" t="n">
-        <v>0.575</v>
+        <v>0.545</v>
       </c>
       <c r="F86" t="n">
         <v>0.5580000000000001</v>
@@ -4400,7 +4400,7 @@
         <v>0.502</v>
       </c>
       <c r="J86" t="n">
-        <v>0.243</v>
+        <v>0.314</v>
       </c>
       <c r="K86" t="n">
         <v>0.411</v>
@@ -4437,7 +4437,7 @@
         <v>0.609</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="H87" t="n">
         <v>0.354</v>
@@ -4474,7 +4474,7 @@
         <v>0.63</v>
       </c>
       <c r="D88" t="n">
-        <v>0.431</v>
+        <v>0.477</v>
       </c>
       <c r="E88" t="n">
         <v>0.548</v>
@@ -4492,7 +4492,7 @@
         <v>0.502</v>
       </c>
       <c r="J88" t="n">
-        <v>0.279</v>
+        <v>0.418</v>
       </c>
       <c r="K88" t="n">
         <v>0.436</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.806</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4584,7 +4584,7 @@
         <v>0.507</v>
       </c>
       <c r="J90" t="n">
-        <v>0.319</v>
+        <v>0.436</v>
       </c>
       <c r="K90" t="n">
         <v>0.468</v>
@@ -4612,7 +4612,7 @@
         <v>0.6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.443</v>
+        <v>0.485</v>
       </c>
       <c r="E91" t="n">
         <v>0.548</v>
@@ -4621,7 +4621,7 @@
         <v>0.54</v>
       </c>
       <c r="G91" t="n">
-        <v>0.626</v>
+        <v>0.709</v>
       </c>
       <c r="H91" t="n">
         <v>0.342</v>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.66</v>
+        <v>0.658</v>
       </c>
       <c r="C92" t="n">
         <v>0.704</v>
@@ -4661,16 +4661,16 @@
         <v>0.498</v>
       </c>
       <c r="E92" t="n">
-        <v>0.634</v>
+        <v>0.59</v>
       </c>
       <c r="F92" t="n">
         <v>0.518</v>
       </c>
       <c r="G92" t="n">
-        <v>0.649</v>
+        <v>0.782</v>
       </c>
       <c r="H92" t="n">
-        <v>0.385</v>
+        <v>0.312</v>
       </c>
       <c r="I92" t="n">
         <v>0.502</v>
@@ -4713,10 +4713,10 @@
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.729</v>
       </c>
       <c r="H93" t="n">
-        <v>0.392</v>
+        <v>0.43</v>
       </c>
       <c r="I93" t="n">
         <v>0.524</v>
@@ -4753,7 +4753,7 @@
         <v>0.46</v>
       </c>
       <c r="E94" t="n">
-        <v>0.612</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F94" t="n">
         <v>0.533</v>
@@ -4768,10 +4768,10 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>0.375</v>
+        <v>0.484</v>
       </c>
       <c r="K94" t="n">
-        <v>0.483</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="L94" t="n">
         <v>0.442</v>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.676</v>
+        <v>0.705</v>
       </c>
       <c r="C95" t="n">
         <v>0.578</v>
@@ -4814,7 +4814,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>0.349</v>
+        <v>0.471</v>
       </c>
       <c r="K95" t="n">
         <v>0.536</v>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.625</v>
+        <v>0.653</v>
       </c>
       <c r="C96" t="n">
         <v>0.631</v>
@@ -4845,7 +4845,7 @@
         <v>0.477</v>
       </c>
       <c r="E96" t="n">
-        <v>0.577</v>
+        <v>0.52</v>
       </c>
       <c r="F96" t="n">
         <v>0.594</v>
@@ -4857,7 +4857,7 @@
         <v>0.34</v>
       </c>
       <c r="I96" t="n">
-        <v>0.532</v>
+        <v>0.498</v>
       </c>
       <c r="J96" t="n">
         <v>0.301</v>
@@ -4866,7 +4866,7 @@
         <v>0.46</v>
       </c>
       <c r="L96" t="n">
-        <v>0.447</v>
+        <v>0.413</v>
       </c>
       <c r="M96" t="n">
         <v>2.451612903225806</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -4943,7 +4943,7 @@
         <v>0.516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.608</v>
+        <v>0.697</v>
       </c>
       <c r="H98" t="n">
         <v>0.362</v>
@@ -4989,7 +4989,7 @@
         <v>0.528</v>
       </c>
       <c r="G99" t="n">
-        <v>0.632</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0.343</v>
@@ -5044,7 +5044,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J100" t="n">
-        <v>0.332</v>
+        <v>0.501</v>
       </c>
       <c r="K100" t="n">
         <v>0.489</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.598</v>
+        <v>0.571</v>
       </c>
       <c r="C101" t="n">
         <v>0.737</v>
@@ -5084,10 +5084,10 @@
         <v>0.773</v>
       </c>
       <c r="H101" t="n">
-        <v>0.314</v>
+        <v>0.365</v>
       </c>
       <c r="I101" t="n">
-        <v>0.521</v>
+        <v>0.537</v>
       </c>
       <c r="J101" t="n">
         <v>0.292</v>
@@ -5096,7 +5096,7 @@
         <v>0.333</v>
       </c>
       <c r="L101" t="n">
-        <v>0.431</v>
+        <v>0.409</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
